--- a/tabelanova1.xlsx
+++ b/tabelanova1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\OneDrive\Área de Trabalho\default_ui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDE15728-8E2B-48C1-B8FD-E8592F870D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68946B06-DF16-4CAA-B143-E2AFABF05146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="23040" windowHeight="12240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compilado" sheetId="1" r:id="rId1"/>
@@ -23,14 +23,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
   <si>
     <t>NR</t>
   </si>
   <si>
-    <t>Processos / Objetos Auditáveis</t>
-  </si>
-  <si>
     <t>Materialidade</t>
   </si>
   <si>
@@ -137,6 +134,42 @@
   </si>
   <si>
     <t>Registro acima de 2 anos</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Escala</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Processo A</t>
+  </si>
+  <si>
+    <t>Processo B</t>
+  </si>
+  <si>
+    <t>Processo C</t>
+  </si>
+  <si>
+    <t>Processo D</t>
+  </si>
+  <si>
+    <t>Processo E</t>
+  </si>
+  <si>
+    <t>Processo F</t>
+  </si>
+  <si>
+    <t>Processo G</t>
+  </si>
+  <si>
+    <t>Objetos Auditáveis</t>
+  </si>
+  <si>
+    <t>Teste</t>
   </si>
 </sst>
 </file>
@@ -491,9 +524,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -511,22 +546,86 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -536,60 +635,72 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="1" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
+      <c r="D4">
         <v>40</v>
       </c>
     </row>
@@ -600,115 +711,143 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="C5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="C6">
+      <c r="D7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9">
+      <c r="D9">
         <v>10</v>
       </c>
     </row>
@@ -719,157 +858,199 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="1" max="1" width="53.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="43" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C2">
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
         <v>36</v>
       </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13">
+      <c r="D13">
         <v>20</v>
       </c>
     </row>

--- a/tabelanova1.xlsx
+++ b/tabelanova1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\OneDrive\Área de Trabalho\default_ui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68946B06-DF16-4CAA-B143-E2AFABF05146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD97B6C-C6F3-4702-B3DE-2BAD3C780BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="51">
   <si>
     <t>NR</t>
   </si>
@@ -61,9 +61,6 @@
     <t>De 10% a 20%</t>
   </si>
   <si>
-    <t>Acima de 20%</t>
-  </si>
-  <si>
     <t>Vinculação a Ação Estratégica Naval (AEN)</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>Vinculado a três AEN</t>
   </si>
   <si>
-    <t>Vinculado a mais de três AEN</t>
-  </si>
-  <si>
     <t>Vinculação ao Portfólio Estratégico</t>
   </si>
   <si>
@@ -170,13 +164,25 @@
   </si>
   <si>
     <t>Teste</t>
+  </si>
+  <si>
+    <t>De 20% a 30%</t>
+  </si>
+  <si>
+    <t>Acima de 30%</t>
+  </si>
+  <si>
+    <t>Vinculado a quatro AEN</t>
+  </si>
+  <si>
+    <t>Vinculado a mais de quatro AEN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +195,14 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -217,11 +231,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A9" sqref="A9:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -569,7 +584,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -577,7 +592,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -585,7 +600,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -593,7 +608,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -601,7 +616,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -609,7 +624,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -617,7 +632,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -625,7 +640,47 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -635,10 +690,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,7 +708,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -667,13 +722,13 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -681,13 +736,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -695,13 +750,27 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -711,10 +780,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -725,12 +794,12 @@
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -739,115 +808,130 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="D6">
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9">
+      <c r="D10">
         <v>10</v>
       </c>
     </row>
@@ -877,7 +961,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -888,13 +972,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -902,13 +986,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -916,13 +1000,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -930,13 +1014,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>20</v>
@@ -944,13 +1028,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -958,13 +1042,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
         <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -972,13 +1056,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -986,13 +1070,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9">
         <v>20</v>
@@ -1000,13 +1084,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1014,13 +1098,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
         <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -1028,13 +1112,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -1042,13 +1126,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13">
         <v>20</v>
